--- a/Project.progress.xlsx
+++ b/Project.progress.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bqdit\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="987"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,123 +24,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">Front end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Started by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working on / Worked on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduward, Bryce, Andre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File parsing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyler, Sawyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metadata parsing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sawyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Window layout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serialization / caching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Music navigator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not started</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Config script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theme colors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+  <si>
+    <t>Front end</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Overhead</t>
+  </si>
+  <si>
+    <t>Started by</t>
+  </si>
+  <si>
+    <t>Working on / Worked on</t>
+  </si>
+  <si>
+    <t>Back end</t>
+  </si>
+  <si>
+    <t>Player interface</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Eduward</t>
+  </si>
+  <si>
+    <t>Eduward, Bryce, Andre</t>
+  </si>
+  <si>
+    <t>File parsing</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Tyler, Sawyer</t>
+  </si>
+  <si>
+    <t>Menu window</t>
+  </si>
+  <si>
+    <t>Metadata parsing</t>
+  </si>
+  <si>
+    <t>Sawyer</t>
+  </si>
+  <si>
+    <t>Window layout</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Serialization / caching</t>
+  </si>
+  <si>
+    <t>Music navigator</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>Config script</t>
+  </si>
+  <si>
+    <t>Theme colors</t>
+  </si>
+  <si>
+    <t>Installer</t>
+  </si>
+  <si>
+    <t>Bryce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,115 +144,87 @@
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -322,34 +283,342 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:M11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.7908163265306"/>
+    <col min="1" max="1" width="20.85546875"/>
+    <col min="2" max="2" width="10.28515625"/>
+    <col min="5" max="5" width="9.7109375"/>
+    <col min="6" max="6" width="20.85546875"/>
+    <col min="8" max="8" width="19"/>
+    <col min="9" max="9" width="10.28515625"/>
+    <col min="13" max="13" width="20.85546875"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -387,7 +656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -425,7 +694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -461,7 +730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -499,7 +768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -529,21 +798,25 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -551,7 +824,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -574,10 +847,9 @@
       <c r="M11" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
